--- a/F20/STAT411/STATS.xlsx
+++ b/F20/STAT411/STATS.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/warg/Desktop/github/schoolProjects/F20/STAT411/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8E4C31-7132-F847-9ECE-E912174667C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F873246D-4EE4-844F-A6F2-A5B2787BE731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="4" xr2:uid="{0DE5DD2F-979C-0C47-97AF-0A80093AC4C9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="3" xr2:uid="{0DE5DD2F-979C-0C47-97AF-0A80093AC4C9}"/>
   </bookViews>
   <sheets>
     <sheet name="4.5 Group Data Population" sheetId="2" r:id="rId1"/>
     <sheet name="4.5 Group Data Sample" sheetId="3" r:id="rId2"/>
     <sheet name="6.1 Probability" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1006,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEC2B76-33ED-F541-9216-C9E74BC00B55}">
   <dimension ref="B4:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1261,18 +1260,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED33D96-B630-7A4F-B876-43864D0F8596}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/F20/STAT411/STATS.xlsx
+++ b/F20/STAT411/STATS.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/warg/Desktop/github/schoolProjects/F20/STAT411/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SchoolProjects\F20\STAT411\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F873246D-4EE4-844F-A6F2-A5B2787BE731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6913EBD7-B8F1-4328-9317-76BA234326DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="3" xr2:uid="{0DE5DD2F-979C-0C47-97AF-0A80093AC4C9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0DE5DD2F-979C-0C47-97AF-0A80093AC4C9}"/>
   </bookViews>
   <sheets>
     <sheet name="4.5 Group Data Population" sheetId="2" r:id="rId1"/>
     <sheet name="4.5 Group Data Sample" sheetId="3" r:id="rId2"/>
-    <sheet name="6.1 Probability" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="6.1 Probability" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>ENTER RANGE BELOW</t>
   </si>
@@ -157,13 +159,64 @@
   </si>
   <si>
     <t>Seniors</t>
+  </si>
+  <si>
+    <t>TRIMMED MEAN</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>ENTER DATA FOR MEAN AND MEDIAN</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>STANDARD DEVIATION ETC.</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>COEFFICIENT OF VARIATION</t>
+  </si>
+  <si>
+    <t>A:</t>
+  </si>
+  <si>
+    <t>B:</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>POPULATION SHIT</t>
+  </si>
+  <si>
+    <t>POPVAR</t>
+  </si>
+  <si>
+    <t>POPSTDEV</t>
+  </si>
+  <si>
+    <t>POPULATION SHIT FOR FREQUENCY TABLE</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Weights of Newborn Babies (in Pounds)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,16 +224,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="STIXMathJax_Main"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,13 +265,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4D4D4D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4D4D4D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4D4D4D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4D4D4D"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,6 +308,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657733</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43AAD94-9832-43CB-84E1-5BF3E1CA67EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677275" y="171450"/>
+          <a:ext cx="3639058" cy="2524477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>434678</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E686FD18-2615-40EE-AC88-51A2074E1FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12563475" y="257175"/>
+          <a:ext cx="4330403" cy="3278384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,12 +715,12 @@
   <dimension ref="B2:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="2" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="29.1" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -537,161 +740,170 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" ht="50.1" customHeight="1">
       <c r="B3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <f>E3*((C3+B3)/2)</f>
-        <v>6</v>
+        <v>171.35</v>
       </c>
       <c r="K3">
         <f>H10/E10</f>
-        <v>13.909090909090908</v>
+        <v>10.623333333333333</v>
       </c>
       <c r="M3">
         <f>E3*((C3+B3)/2)*((C3+B3)/2)</f>
-        <v>18</v>
+        <v>1276.5574999999999</v>
       </c>
       <c r="P3">
         <f>(M10/E10)-(H10/E10)*(H10/E10)</f>
-        <v>42.355371900826469</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.0943999999999789</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="50.1" customHeight="1">
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H9" si="0">E4*((C4+B4)/2)</f>
-        <v>40</v>
+        <v>177.45</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M9" si="1">E4*((C4+B4)/2)*((C4+B4)/2)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1499.4524999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="50.1" customHeight="1">
       <c r="B5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>9.9</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>283.5</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>1183</v>
+        <v>2679.0749999999998</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" ht="50.1" customHeight="1">
       <c r="B6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>10.9</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>512.04999999999995</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>5350.9224999999988</v>
       </c>
       <c r="P6">
         <f>SQRT(P3)</f>
-        <v>6.5081004833074347</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.7590906741836758</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="50.1" customHeight="1">
       <c r="B7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>11.9</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>538.15</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6161.8174999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="50.1" customHeight="1">
       <c r="B8">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>12.9</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>398.4</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>784</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4960.079999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="50.1" customHeight="1">
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>13.9</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>309.34999999999997</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4160.7574999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="50.1" customHeight="1">
       <c r="E10">
         <f>SUM(E3:E9)</f>
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="H10">
         <f>SUM(H3:H9)</f>
-        <v>306</v>
+        <v>2390.25</v>
       </c>
       <c r="M10">
         <f>SUM(M3:M9)</f>
-        <v>5188</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:16" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>26088.662499999995</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="50.1" customHeight="1"/>
+    <row r="12" spans="2:16" ht="50.1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -705,10 +917,10 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" ht="30" customHeight="1"/>
+    <row r="3" spans="2:15" ht="50.1" customHeight="1">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -734,137 +946,137 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" ht="50.1" customHeight="1">
       <c r="B4">
-        <v>119.1</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>122.2</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <f>(C4+B4)/2</f>
-        <v>120.65</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <f>F4*D4</f>
-        <v>5549.9000000000005</v>
+        <v>885</v>
       </c>
       <c r="J4">
         <f>D4*F4*F4</f>
-        <v>669595.43500000006</v>
+        <v>52215</v>
       </c>
       <c r="M4">
         <f>(J11-((H11*H11)/D11))/(D11-1)</f>
-        <v>21.945899329422151</v>
+        <v>123.14343434343485</v>
       </c>
       <c r="O4">
         <f>H11/D11</f>
-        <v>125.86558441558444</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73.509090909090915</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="50.1" customHeight="1">
       <c r="B5">
-        <v>122.3</v>
+        <v>63</v>
       </c>
       <c r="C5">
-        <v>125.4</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F10" si="0">(C5+B5)/2</f>
-        <v>123.85</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H10" si="1">F5*D5</f>
-        <v>4706.3</v>
+        <v>396</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J10" si="2">D5*F5*F5</f>
-        <v>582875.255</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="50.1" customHeight="1">
       <c r="B6">
-        <v>125.5</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>128.6</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>127.05</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>3049.2</v>
+        <v>657</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>387400.86</v>
+        <v>47961</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" ht="50.1" customHeight="1">
       <c r="B7">
-        <v>128.69999999999999</v>
+        <v>77</v>
       </c>
       <c r="C7">
-        <v>131.80000000000001</v>
+        <v>83</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>130.25</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>2474.75</v>
+        <v>800</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>322336.1875</v>
+        <v>64000</v>
       </c>
       <c r="M7">
         <f>SQRT(M4)</f>
-        <v>4.6846450590650033</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11.097001141904729</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="50.1" customHeight="1">
       <c r="B8">
-        <v>131.9</v>
+        <v>84</v>
       </c>
       <c r="C8">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>133.44999999999999</v>
+        <v>87</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>3603.1499999999996</v>
+        <v>1305</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>480840.36749999993</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113535</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="50.1" customHeight="1">
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -878,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" ht="50.1" customHeight="1">
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -892,18 +1104,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" ht="50.1" customHeight="1">
       <c r="D11">
         <f>SUM(D4:D8)</f>
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <f>SUM(H4:H8)</f>
-        <v>19383.300000000003</v>
+        <v>4043</v>
       </c>
       <c r="J11">
         <f>SUM(J4:J8)</f>
-        <v>2443048.1049999995</v>
+        <v>303847</v>
       </c>
     </row>
   </sheetData>
@@ -912,18 +1124,592 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E0AC2E-9BC0-AB4A-8C08-77D96FBCD911}">
-  <dimension ref="C4:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C526C0-6F06-416A-822C-9891E811E5CC}">
+  <dimension ref="B1:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>580</v>
+      </c>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>780</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(E3:E22)</f>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f>MEDIAN(E3:E22)</f>
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>490</v>
+      </c>
+      <c r="L5">
+        <f>STDEV(J3:J22)</f>
+        <v>194.65151046502513</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <f>SUM(E3:E10)</f>
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="J9">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="J10">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="J11">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="J12">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="J13">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="J14">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="J15">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="J16">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17">
+        <v>52</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="J17">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18">
+        <v>53</v>
+      </c>
+      <c r="J18">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19">
+        <v>54</v>
+      </c>
+      <c r="J19">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20">
+        <v>54</v>
+      </c>
+      <c r="J20">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21">
+        <v>55</v>
+      </c>
+      <c r="J21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="J22">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="Q25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>61</v>
+      </c>
+      <c r="L26">
+        <v>66</v>
+      </c>
+      <c r="M26">
+        <v>23</v>
+      </c>
+      <c r="O26">
+        <f>AVERAGE(K26:L26)*M26</f>
+        <v>1460.5</v>
+      </c>
+      <c r="P26">
+        <f>AVERAGE(K26:L26)*AVERAGE(K26:L26)*M26</f>
+        <v>92741.75</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(O26:O32)/SUM(M26:M32)</f>
+        <v>27.74337899543379</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27">
+        <v>20529</v>
+      </c>
+      <c r="C27">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E27">
+        <f>(STDEV(B27:B40)/AVERAGE(B27:B40))*100</f>
+        <v>2.7600140468097405</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <f>_xlfn.VAR.P(G26:G35)</f>
+        <v>18.559999999999999</v>
+      </c>
+      <c r="K27">
+        <v>67</v>
+      </c>
+      <c r="L27">
+        <v>72</v>
+      </c>
+      <c r="M27">
+        <v>22</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O32" si="0">AVERAGE(K27:L27)*M27</f>
+        <v>1529</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27:P32" si="1">AVERAGE(K27:L27)*AVERAGE(K27:L27)*M27</f>
+        <v>106265.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28">
+        <v>22081</v>
+      </c>
+      <c r="C28">
+        <v>4.71</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>73</v>
+      </c>
+      <c r="L28">
+        <v>9.9</v>
+      </c>
+      <c r="M28">
+        <v>35</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>1450.75</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>60133.587500000009</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29">
+        <v>21454</v>
+      </c>
+      <c r="C29">
+        <v>3.87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>10.9</v>
+      </c>
+      <c r="M29">
+        <v>39</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>407.54999999999995</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>4258.8974999999991</v>
+      </c>
+      <c r="Q29">
+        <f>(SUM(P26:P32)/SUM(M26:M32))-(Q26*Q26)</f>
+        <v>502.19389451846325</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30">
+        <v>21449</v>
+      </c>
+      <c r="C30">
+        <v>4.57</v>
+      </c>
+      <c r="E30">
+        <f>(STDEV(C27:C40)/AVERAGE(C27:C40))*100</f>
+        <v>17.013764337006453</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <f>_xlfn.STDEV.P(G26:G35)</f>
+        <v>4.308131845707603</v>
+      </c>
+      <c r="K30">
+        <v>11</v>
+      </c>
+      <c r="L30">
+        <v>11.9</v>
+      </c>
+      <c r="M30">
+        <v>42</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>480.9</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>5506.3049999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31">
+        <v>21801</v>
+      </c>
+      <c r="C31">
+        <v>4.29</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <v>12</v>
+      </c>
+      <c r="L31">
+        <v>12.9</v>
+      </c>
+      <c r="M31">
+        <v>33</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>410.84999999999997</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>5115.0824999999986</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32">
+        <v>21892</v>
+      </c>
+      <c r="C32">
+        <v>4.49</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>13</v>
+      </c>
+      <c r="L32">
+        <v>13.9</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>336.25</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>4522.5624999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
+        <v>20913</v>
+      </c>
+      <c r="C33">
+        <v>3.23</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34">
+        <v>20075</v>
+      </c>
+      <c r="C34">
+        <v>2.94</v>
+      </c>
+      <c r="G34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35">
+        <v>21694</v>
+      </c>
+      <c r="C35">
+        <v>4.41</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36">
+        <v>21681</v>
+      </c>
+      <c r="C36">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37">
+        <v>21416</v>
+      </c>
+      <c r="C37">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38">
+        <v>21829</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39">
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40">
+        <v>22053</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:E17">
+    <sortCondition ref="E3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E0AC2E-9BC0-AB4A-8C08-77D96FBCD911}">
+  <dimension ref="C4:J59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C59" sqref="C40:C59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="4" spans="3:10">
       <c r="C4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -932,86 +1718,398 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:10">
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>19</v>
-      </c>
-      <c r="D5">
-        <v>268</v>
-      </c>
-      <c r="E5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>219</v>
-      </c>
-      <c r="E6">
-        <v>236</v>
       </c>
       <c r="G6">
         <f>SUM(D5:E9)</f>
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <f>D7/G6</f>
+        <v>9.6385542168674704E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="G9">
+        <f>D6/(G6-1)</f>
+        <v>3.6585365853658534E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="G11">
+        <f>G8*G9</f>
+        <v>3.5263003232441962E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <f>SUM(C12:C16)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="G15">
+        <f>F15/SUM(F15:F17)</f>
+        <v>0.52951289398280799</v>
+      </c>
+      <c r="I15">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="J15">
+        <f>I15/SUM(I15:I16)</f>
+        <v>0.2140221402214022</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="I16">
+        <v>4.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="F17">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20">
+        <f>13</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>279</v>
+      </c>
+      <c r="E23">
+        <v>111</v>
+      </c>
+      <c r="G23">
+        <f>SUM(D23:E27)</f>
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>125</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>94</v>
-      </c>
-      <c r="E7">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="D25">
+        <v>193</v>
+      </c>
+      <c r="E25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
-        <v>62</v>
-      </c>
-      <c r="E8">
-        <v>121</v>
-      </c>
-      <c r="G8">
-        <f>E5/G6</f>
-        <v>0.12215435868961688</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>80</v>
+      </c>
+      <c r="G26">
+        <f>SUM(D24:E24)/G23</f>
+        <v>0.21929824561403508</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="D27">
+        <v>286</v>
+      </c>
+      <c r="E27">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>240</v>
+      </c>
+      <c r="E31">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>59</v>
+      </c>
+      <c r="E32">
         <v>78</v>
       </c>
-      <c r="E9">
-        <v>204</v>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>297</v>
+      </c>
+      <c r="E33">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>244</v>
+      </c>
+      <c r="E34">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>284</v>
+      </c>
+      <c r="E35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59">
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C40:C59">
+    <sortCondition ref="C40"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEC2B76-33ED-F541-9216-C9E74BC00B55}">
   <dimension ref="B4:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18">
       <c r="K4">
         <v>23</v>
       </c>
@@ -1025,7 +2123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +2154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1067,7 +2165,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1082,7 +2180,7 @@
         <v>0.59610983981693366</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1097,7 +2195,7 @@
         <v>0.87414187643020591</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +2210,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1139,13 +2237,13 @@
         <v>6.3725490196078427E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18">
       <c r="N11">
         <f>24/73</f>
         <v>0.32876712328767121</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18">
       <c r="G13">
         <f>4/52</f>
         <v>7.6923076923076927E-2</v>
@@ -1155,19 +2253,19 @@
         <v>4.5248868778280547E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18">
       <c r="G14">
         <f>3/51</f>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18">
       <c r="P16">
         <f>(13/52)*(26/52)*(12/52)</f>
         <v>2.8846153846153848E-2</v>
       </c>
     </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:17">
       <c r="E18">
         <f>13/52</f>
         <v>0.25</v>
@@ -1178,19 +2276,19 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:17">
       <c r="E19">
         <f>1/50</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:17">
       <c r="E20">
         <f>25/51</f>
         <v>0.49019607843137253</v>
       </c>
     </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:17">
       <c r="K21" t="s">
         <v>28</v>
       </c>
@@ -1201,7 +2299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:17">
       <c r="E22" s="1">
         <f>(1/50)</f>
         <v>0.02</v>
@@ -1224,7 +2322,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:17">
       <c r="K23" t="s">
         <v>30</v>
       </c>
@@ -1235,7 +2333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:17">
       <c r="K24" t="s">
         <v>31</v>
       </c>
@@ -1246,7 +2344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:17">
       <c r="K25" t="s">
         <v>32</v>
       </c>
@@ -1260,4 +2358,200 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED460443-9963-4C51-8703-445B8A077D53}">
+  <dimension ref="B3:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f>D5/66</f>
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="H4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K4">
+        <v>1.235E-2</v>
+      </c>
+      <c r="L4">
+        <f>K4/SUM(K4:K6)</f>
+        <v>0.11121116614137776</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <f>4/65</f>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="H5">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>5.3</v>
+      </c>
+      <c r="K6">
+        <v>9.8699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <f>F4*F5</f>
+        <v>6.5268065268065277E-3</v>
+      </c>
+      <c r="H7">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="H8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="H9">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>175</v>
+      </c>
+      <c r="D11">
+        <v>232</v>
+      </c>
+      <c r="F11">
+        <f>SUM(C13:D13)/1857</f>
+        <v>0.17932148626817448</v>
+      </c>
+      <c r="H11">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>189</v>
+      </c>
+      <c r="D14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>251</v>
+      </c>
+      <c r="D15">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:H11">
+    <sortCondition ref="H3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>